--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>529288.3006318748</v>
+        <v>543283.9628853393</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>492028.9342484448</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7865781.058993767</v>
+        <v>7916286.113141458</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>321.8442031833085</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>93.52859434269449</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.16954626022491</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>103.106364426374</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255876</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>146.630404287616</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1054,25 +1054,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>141.3076780977018</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>294.4697136880074</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>68.6838071634393</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1300,10 +1300,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>61.84146236956306</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,13 +1351,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>420.1696338988318</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>71.43430199953281</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>79.86552601431211</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1534,7 +1534,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1613,19 +1613,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>161.4258646586666</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>129.7853418074784</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>161.488702734601</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.20092700998659</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>18.64034175572537</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>132.7957673084554</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>67.45240452679985</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>67.42894579208244</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>372.3046183802597</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>347.6097274870441</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>46.22530271040043</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>29.10461178738959</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225757</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907229</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2719,16 +2719,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>64.90507698037676</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907207</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2962,10 +2962,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>43.48898701015901</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3196,13 +3196,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>52.00914065545686</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -3241,7 +3241,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>48.28314334362916</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170514</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3478,7 +3478,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>113.7218216744501</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3664,7 +3664,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>41.77118486549531</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>103.828474294603</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3791,7 +3791,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3904,16 +3904,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>84.71997427496036</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,7 +3952,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>195.1399239737167</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -4147,10 +4147,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361668</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>13.99728392830635</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>862.2274484332474</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.618961230546</v>
+        <v>424.0849756166708</v>
       </c>
       <c r="D2" t="n">
-        <v>788.0372869678147</v>
+        <v>392.2155948315194</v>
       </c>
       <c r="E2" t="n">
-        <v>359.455612705083</v>
+        <v>362.4812540302186</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>338.6542284798304</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>338.6542284798304</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.5240739230467</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>656.8099308587472</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>656.8099308587472</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>656.8099308587472</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>656.8099308587472</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1132.008730489123</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1739.711376797683</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756278</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2196.141924826352</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2196.141924826352</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1791.286470237385</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>1696.813142618502</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1288.527018918155</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397423</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.1709577106443</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>952.3456003142296</v>
+        <v>701.0657916214911</v>
       </c>
       <c r="C4" t="n">
-        <v>779.7838887974546</v>
+        <v>701.0657916214911</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>701.0657916214911</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>531.3077878722283</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>354.6007338339845</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>189.0094588598122</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>828.6553060539733</v>
       </c>
       <c r="M4" t="n">
-        <v>1146.964903885608</v>
+        <v>1077.736506291235</v>
       </c>
       <c r="N4" t="n">
-        <v>1146.964903885608</v>
+        <v>1519.995309448879</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1939.664558674661</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645003</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214707</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2028.825591091159</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1924.677748236236</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1637.722240106666</v>
       </c>
       <c r="W4" t="n">
-        <v>1425.157025666709</v>
+        <v>1365.695835692958</v>
       </c>
       <c r="X4" t="n">
-        <v>1179.765271000121</v>
+        <v>1120.30408102637</v>
       </c>
       <c r="Y4" t="n">
-        <v>952.3456003142296</v>
+        <v>892.8844103404783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.640221925911</v>
+        <v>1382.829461272046</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>912.8176076703178</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111165</v>
+        <v>1813.374751416896</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.9397924108188</v>
+        <v>1405.08862771655</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>66.6195087848011</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>341.3779633559367</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>341.3779633559367</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>761.43086230084</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1554.4484016989</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1308.568955277356</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1030.135954530461</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="V7" t="n">
-        <v>743.1804464008915</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>471.154041987183</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7622873205955</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.7622873205955</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.3451554119299</v>
+        <v>577.3912258549058</v>
       </c>
       <c r="C8" t="n">
-        <v>526.2430866357572</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D8" t="n">
-        <v>494.3737058506057</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>464.639365049305</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851272</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851272</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851272</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851272</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>759.3373055743896</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>759.3373055743896</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>759.3373055743896</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>759.3373055743896</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743896</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873484</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925636</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925636</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925636</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925636</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1475.979822859463</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>1475.1647723109</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X8" t="n">
-        <v>1056.022308890211</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y8" t="n">
-        <v>986.6447258968377</v>
+        <v>874.8353810953173</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230025</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851272</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897031</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842775</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842775</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842775</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>835.9978906635972</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>663.4361791468222</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>497.5581863483449</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>327.8001825990821</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>327.8001825990821</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934629</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851272</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943382</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>398.1100751943382</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>853.1627764934331</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>903.2278548651807</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090962</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061304</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925636</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925636</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925636</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925636</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.163772178742</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1273.208264049172</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1273.208264049172</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1027.816509382584</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1027.816509382584</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2511.87917085155</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C11" t="n">
-        <v>2073.736698034974</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874956</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H11" t="n">
         <v>97.15276605397517</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4764.64297345017</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="U11" t="n">
-        <v>4533.079733112634</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V11" t="n">
-        <v>4170.462783046461</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W11" t="n">
-        <v>3765.607328457494</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3346.464865036805</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2938.178741336458</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="12">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580463</v>
+        <v>917.3761843184092</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412712</v>
+        <v>744.8144728016341</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935312</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111506</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H13" t="n">
         <v>96.73597668111518</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="14">
@@ -5261,43 +5261,43 @@
         <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>498.7803825855955</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1573.840348838455</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="M14" t="n">
-        <v>2730.888184049006</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="N14" t="n">
-        <v>3856.619167485453</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O14" t="n">
-        <v>4836.798834055759</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
-        <v>4836.798834055759</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>1084.662814845622</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776222</v>
+        <v>912.1011033288469</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>746.2231105303697</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284816</v>
+        <v>576.4651067811069</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902378</v>
+        <v>399.7580527428631</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160654</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
         <v>96.73597668111518</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2677.839094654636</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2677.839094654636</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2399.406093907741</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="V16" t="n">
-        <v>2112.450585778171</v>
+        <v>2021.319263330797</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.424181364463</v>
+        <v>1749.292858917088</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697876</v>
+        <v>1503.901104250501</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>1276.481433564609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172013</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293682</v>
       </c>
       <c r="K17" t="n">
-        <v>1186.925458503958</v>
+        <v>1237.596475687546</v>
       </c>
       <c r="L17" t="n">
-        <v>1186.925458503958</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M17" t="n">
-        <v>1186.925458503958</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N17" t="n">
         <v>2312.656441940405</v>
@@ -5552,13 +5552,13 @@
         <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5653,10 +5653,10 @@
         <v>1003.232425776222</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777442</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284814</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F19" t="n">
         <v>490.8893751902377</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2645.285540329286</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2399.406093907741</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="U19" t="n">
-        <v>2399.406093907741</v>
+        <v>2275.721217135017</v>
       </c>
       <c r="V19" t="n">
-        <v>2112.450585778172</v>
+        <v>1988.765709005447</v>
       </c>
       <c r="W19" t="n">
-        <v>1840.424181364463</v>
+        <v>1716.739304591739</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.032426697876</v>
+        <v>1471.347549925151</v>
       </c>
       <c r="Y19" t="n">
-        <v>1367.612756011984</v>
+        <v>1243.927879239259</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>386.282920610759</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111518</v>
@@ -5756,13 +5756,13 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2312.656441940405</v>
+        <v>2167.105125074265</v>
       </c>
       <c r="M20" t="n">
-        <v>2312.656441940405</v>
+        <v>2167.105125074265</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940405</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="O20" t="n">
         <v>3292.836108510712</v>
@@ -5780,22 +5780,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U20" t="n">
-        <v>4533.079733112634</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.958796257035</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.103341668068</v>
+        <v>3726.452252901472</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.960878247379</v>
+        <v>3307.309789480783</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.674754547032</v>
+        <v>2899.023665780436</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P21" t="n">
         <v>1102.064021433509</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580463</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412713</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D22" t="n">
-        <v>608.792309442794</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902376</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
         <v>96.73597668111518</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2645.285540329286</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119685</v>
+        <v>2399.406093907741</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.84397037279</v>
+        <v>2399.406093907741</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243221</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162925</v>
+        <v>1595.032426697875</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477033</v>
+        <v>1367.612756011983</v>
       </c>
     </row>
     <row r="23">
@@ -6066,22 +6066,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6148,10 +6148,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832885</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127508</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1601.005850966132</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883922</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731399</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E28" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6385,7 +6385,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6412,7 +6412,7 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U28" t="n">
         <v>2035.366634303137</v>
@@ -6424,10 +6424,10 @@
         <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.992967093272</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6540,7 +6540,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903953</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736203</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.556342075143</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258802</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.0912842876364</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109383</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6701,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6777,7 +6777,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1057.14643235498</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C34" t="n">
-        <v>884.5847208382046</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D34" t="n">
-        <v>718.7067280397273</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E34" t="n">
-        <v>548.9487242904646</v>
+        <v>533.2191185085203</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
         <v>190.9207894961043</v>
@@ -6889,19 +6889,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2265.028783187779</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173567</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X34" t="n">
-        <v>1476.384721759859</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y34" t="n">
-        <v>1248.965051073967</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6917,46 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7014,7 +7014,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731399</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238771</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856333</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2292.381813755403</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2005.426305625833</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1733.399901212125</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1488.008146545537</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,25 +7175,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7205,19 +7205,19 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1057.634124109937</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>885.0724125931615</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674087</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7348,7 +7348,7 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q40" t="n">
         <v>2718.920450173579</v>
@@ -7360,22 +7360,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2281.246080724681</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1994.290572595112</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.264168181403</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1476.872413514816</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1249.452742828924</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004234</v>
@@ -7409,34 +7409,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>475.2748675296854</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1632.322702740236</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
         <v>4809.322912595856</v>
@@ -7485,10 +7485,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
         <v>1107.588885023173</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.187678435286</v>
+        <v>871.6588228237728</v>
       </c>
       <c r="C43" t="n">
-        <v>917.6259669185112</v>
+        <v>699.0971113069977</v>
       </c>
       <c r="D43" t="n">
-        <v>751.7479741200339</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E43" t="n">
-        <v>581.9899703707712</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2313.799635050031</v>
+        <v>2095.270779438517</v>
       </c>
       <c r="V43" t="n">
-        <v>2026.844126920461</v>
+        <v>1808.315271308948</v>
       </c>
       <c r="W43" t="n">
-        <v>1754.817722506753</v>
+        <v>1536.288866895239</v>
       </c>
       <c r="X43" t="n">
-        <v>1509.425967840165</v>
+        <v>1290.897112228652</v>
       </c>
       <c r="Y43" t="n">
-        <v>1282.006297154273</v>
+        <v>1063.47744154276</v>
       </c>
     </row>
     <row r="44">
@@ -7634,13 +7634,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7652,10 +7652,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423627</v>
@@ -7725,7 +7725,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K45" t="n">
         <v>1107.588885023173</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903952</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736202</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751428</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258801</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876363</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
         <v>190.9207894961043</v>
@@ -7804,52 +7804,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354714</v>
+        <v>188.8405254354693</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006607</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L46" t="n">
-        <v>881.808861774568</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955481</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113126</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338907</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309249</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173581</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878953</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2683.3639582443</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1845.949044954128</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>479.9987875054302</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854885</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>251.59717195683</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>204.7592244691589</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,22 +8371,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>33.00589917494217</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2128107706657</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314091</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314091</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.649193231409</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.2218006662721</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314091</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,13 +8614,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.649193231409</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>50.57078623408859</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8693,10 +8693,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>955.8742281294894</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>406.1054605095761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K17" t="n">
-        <v>661.550297343359</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,22 +9243,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,16 +9404,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294894</v>
+        <v>808.8526959414685</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9480,22 +9480,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9714,10 +9714,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>671.1057765021969</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,22 +9954,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10349,25 +10349,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.04441372935617</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10425,10 +10425,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,13 +10601,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>239.9071053991102</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>376.7818457160665</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11373,10 +11373,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>11.38105307846809</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>11.38105307846855</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>110.0349065174851</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>268.0111327346211</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>267.5985112554903</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.446659489829642</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>122.4480280049967</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.5985112554905</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>268.0111327346216</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>122.4480280049974</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>90.22000922290086</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>49.731956399799</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>11.38105307846763</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>139.5921776627249</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>103.1553467313934</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>139.5921776627252</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>122.9308428424045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>227.3655273957966</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>122.4480280049972</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>90.22000922290097</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>80.50874676570898</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>69.71657238081393</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>143.6516710866769</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>652222.907639519</v>
+        <v>667773.7318822186</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>652222.907639519</v>
+        <v>672177.3109317867</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>655123.3952905068</v>
+        <v>672177.3109317867</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671872.0013739726</v>
+        <v>671872.0013739724</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>700225.7675922017</v>
+        <v>700225.7675922016</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>700225.7675922016</v>
+        <v>700225.7675922017</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>700225.7675922017</v>
+        <v>700225.7675922016</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>700225.7675922016</v>
+        <v>700225.7675922017</v>
       </c>
     </row>
     <row r="16">
@@ -26314,22 +26314,22 @@
         <v>335092.0749315053</v>
       </c>
       <c r="C2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315052</v>
       </c>
       <c r="D2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315052</v>
       </c>
       <c r="E2" t="n">
         <v>315952.4362322976</v>
       </c>
       <c r="F2" t="n">
+        <v>315952.4362322977</v>
+      </c>
+      <c r="G2" t="n">
         <v>315952.4362322976</v>
       </c>
-      <c r="G2" t="n">
-        <v>315952.4362322978</v>
-      </c>
       <c r="H2" t="n">
-        <v>315952.4362322978</v>
+        <v>315952.4362322976</v>
       </c>
       <c r="I2" t="n">
         <v>329285.9900858452</v>
@@ -26341,16 +26341,16 @@
         <v>329285.9900858452</v>
       </c>
       <c r="L2" t="n">
+        <v>329285.9900858453</v>
+      </c>
+      <c r="M2" t="n">
         <v>329285.9900858452</v>
-      </c>
-      <c r="M2" t="n">
-        <v>329285.9900858453</v>
       </c>
       <c r="N2" t="n">
         <v>329285.9900858452</v>
       </c>
       <c r="O2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858453</v>
       </c>
       <c r="P2" t="n">
         <v>329285.9900858452</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039027</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390683</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200258</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856131</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784528</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509819</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218225.2660325691</v>
+        <v>190396.3809770169</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="D4" t="n">
-        <v>213034.7156035602</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
         <v>103931.2982770052</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846967</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84749.27989799605</v>
+        <v>-131965.6988075563</v>
       </c>
       <c r="C6" t="n">
-        <v>57442.02076171368</v>
+        <v>61023.02372251292</v>
       </c>
       <c r="D6" t="n">
-        <v>49501.28170747269</v>
+        <v>78363.56809641978</v>
       </c>
       <c r="E6" t="n">
-        <v>-85297.49807438254</v>
+        <v>-23309.83808726632</v>
       </c>
       <c r="F6" t="n">
-        <v>138501.7956776449</v>
+        <v>138425.2371228482</v>
       </c>
       <c r="G6" t="n">
-        <v>138501.795677645</v>
+        <v>138425.2371228481</v>
       </c>
       <c r="H6" t="n">
-        <v>138501.7956776451</v>
+        <v>138425.2371228481</v>
       </c>
       <c r="I6" t="n">
-        <v>124885.7180187503</v>
+        <v>124862.4936793676</v>
       </c>
       <c r="J6" t="n">
-        <v>32235.96830659965</v>
+        <v>-17380.62017340602</v>
       </c>
       <c r="K6" t="n">
-        <v>143250.4336515898</v>
+        <v>129413.2007443619</v>
       </c>
       <c r="L6" t="n">
-        <v>134302.82256308</v>
+        <v>143227.2093122072</v>
       </c>
       <c r="M6" t="n">
-        <v>-43540.5529588778</v>
+        <v>8237.264699203713</v>
       </c>
       <c r="N6" t="n">
-        <v>143250.4336515898</v>
+        <v>143227.2093122072</v>
       </c>
       <c r="O6" t="n">
-        <v>143250.4336515898</v>
+        <v>143227.2093122072</v>
       </c>
       <c r="P6" t="n">
-        <v>143250.4336515898</v>
+        <v>143227.2093122072</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.649193231409</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="D4" t="n">
-        <v>35.3533357113047</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825306</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>35.3533357113047</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825303</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>35.3533357113047</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825306</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F2" t="n">
-        <v>101.7445521115758</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>321.4224444437879</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>159.0496666102676</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>172.5423063130517</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628234</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>268.3206344988664</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>16.34127691728153</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>127.5668610920513</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>335.5194552999038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>102.0938998548675</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>479.9987875054302</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854885</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>251.59717195683</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>204.7592244691589</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>33.00589917494217</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2128107706657</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,19 +35182,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314091</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314091</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.649193231409</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.2218006662721</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314091</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.649193231409</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>50.57078623408859</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,10 +35413,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>955.8742281294894</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>406.1054605095761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K17" t="n">
-        <v>661.550297343359</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,22 +35963,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36124,16 +36124,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294894</v>
+        <v>808.8526959414685</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36200,22 +36200,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36434,10 +36434,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36516,19 +36516,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>671.1057765021969</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36756,13 +36756,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512943</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -37069,25 +37069,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.04441372935617</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37145,10 +37145,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,13 +37321,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37470,13 +37470,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37543,28 +37543,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>239.9071053991102</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37716,10 +37716,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>376.7818457160665</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,13 +38020,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908262</v>
+        <v>87.45422743908053</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
